--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/17.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/17.xlsx
@@ -479,13 +479,13 @@
         <v>-19.69811225773057</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.8128340757518</v>
+        <v>-11.80090698786298</v>
       </c>
       <c r="F2" t="n">
-        <v>3.127565142809481</v>
+        <v>0.9998040849721609</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.99209070290683</v>
+        <v>-11.03907897780579</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-19.05249837644793</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.48350038112206</v>
+        <v>-12.3811316652026</v>
       </c>
       <c r="F3" t="n">
-        <v>3.229318520495376</v>
+        <v>1.107239522091365</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.65780493444904</v>
+        <v>-10.83605663763914</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-18.32435627832467</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.04454483479854</v>
+        <v>-12.90426080984945</v>
       </c>
       <c r="F4" t="n">
-        <v>3.106407981417252</v>
+        <v>0.9689586194770542</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.27638687576103</v>
+        <v>-10.67593777388483</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-17.59372576867018</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.62610492702802</v>
+        <v>-13.45340436024281</v>
       </c>
       <c r="F5" t="n">
-        <v>3.261316108640555</v>
+        <v>1.213837051828699</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.01897910958986</v>
+        <v>-10.46885681983725</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.85869990665509</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.43768368788377</v>
+        <v>-14.18752905748691</v>
       </c>
       <c r="F6" t="n">
-        <v>3.2528584810048</v>
+        <v>1.196542119774779</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.504124300338979</v>
+        <v>-10.10495626235147</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.15583399165406</v>
       </c>
       <c r="E7" t="n">
-        <v>-15.0028522169554</v>
+        <v>-14.74573248144675</v>
       </c>
       <c r="F7" t="n">
-        <v>3.291716435839043</v>
+        <v>1.290269915818695</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.21930125201723</v>
+        <v>-10.04385448498914</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.50722974584017</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.89397980987749</v>
+        <v>-15.48802677566409</v>
       </c>
       <c r="F8" t="n">
-        <v>3.624732250921187</v>
+        <v>1.589193374300985</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.599197420221715</v>
+        <v>-9.424339806821502</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-14.91388185728334</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.70369946372972</v>
+        <v>-16.33867296819956</v>
       </c>
       <c r="F9" t="n">
-        <v>3.656337069981114</v>
+        <v>1.678901833372492</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.977679619719297</v>
+        <v>-8.826728551308074</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-14.38062594849293</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.37231027755383</v>
+        <v>-17.01555811741964</v>
       </c>
       <c r="F10" t="n">
-        <v>3.929494876470887</v>
+        <v>1.924461065471906</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.333276473849539</v>
+        <v>-8.238687769171948</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-13.92542249813441</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.33312819850242</v>
+        <v>-17.99263667849765</v>
       </c>
       <c r="F11" t="n">
-        <v>4.066021410504406</v>
+        <v>2.09196398802895</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.022792511958006</v>
+        <v>-7.952712598200125</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-13.53272350055258</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.27288060417868</v>
+        <v>-18.89480108271531</v>
       </c>
       <c r="F12" t="n">
-        <v>4.414905096630722</v>
+        <v>2.333621713881529</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.397451759025802</v>
+        <v>-7.43522623607806</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-13.19570454656903</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.9011147560389</v>
+        <v>-19.46078133456313</v>
       </c>
       <c r="F13" t="n">
-        <v>4.478795534498346</v>
+        <v>2.28523256257851</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.663837661592523</v>
+        <v>-6.767086745156254</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-12.92907575105409</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.83518510228185</v>
+        <v>-20.42090536346111</v>
       </c>
       <c r="F14" t="n">
-        <v>4.823437314503942</v>
+        <v>2.749537990557483</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.88103578238288</v>
+        <v>-5.963009873828805</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-12.71602231534337</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.66873274730602</v>
+        <v>-21.31537149360783</v>
       </c>
       <c r="F15" t="n">
-        <v>4.915083434396025</v>
+        <v>2.817984549814027</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.508716874169874</v>
+        <v>-5.632730350040582</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-12.5453788756127</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.48888696652311</v>
+        <v>-22.05422251217781</v>
       </c>
       <c r="F16" t="n">
-        <v>5.121313388758894</v>
+        <v>2.998029898493444</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.089933383171582</v>
+        <v>-5.183337054998335</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-12.42394116203502</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.43892992223296</v>
+        <v>-22.93805769241705</v>
       </c>
       <c r="F17" t="n">
-        <v>5.468076121824851</v>
+        <v>3.307767599122999</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.988022897851586</v>
+        <v>-5.185523469572903</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-12.33373889757655</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.31179375269084</v>
+        <v>-23.93613630725319</v>
       </c>
       <c r="F18" t="n">
-        <v>5.273079363300183</v>
+        <v>3.202976807177824</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.659091881256061</v>
+        <v>-4.948094557538201</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-12.25604624815228</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.06088295208304</v>
+        <v>-24.5821236217668</v>
       </c>
       <c r="F19" t="n">
-        <v>5.509500168016072</v>
+        <v>3.471421384644575</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.59188909076948</v>
+        <v>-4.925601981256115</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-12.19092539535213</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.45799868187827</v>
+        <v>-25.03120270154085</v>
       </c>
       <c r="F20" t="n">
-        <v>5.703475726919085</v>
+        <v>3.739132793152189</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.266951226540681</v>
+        <v>-4.634481535267494</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-12.12532334004158</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.05732502906397</v>
+        <v>-25.72962468893557</v>
       </c>
       <c r="F21" t="n">
-        <v>5.665036725775778</v>
+        <v>3.665920635661257</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.369896003785173</v>
+        <v>-4.577948971596921</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-12.04446307885781</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.55442667566146</v>
+        <v>-26.24425692903813</v>
       </c>
       <c r="F22" t="n">
-        <v>5.775300100308795</v>
+        <v>3.870343852231968</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.28385338950935</v>
+        <v>-4.663350063033501</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-11.95486510320136</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.95553555782343</v>
+        <v>-26.6874444725334</v>
       </c>
       <c r="F23" t="n">
-        <v>5.767025764912824</v>
+        <v>3.85094105942053</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.385174721201468</v>
+        <v>-4.692179313890981</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-11.85834057467253</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.41195941949168</v>
+        <v>-27.07203086850911</v>
       </c>
       <c r="F24" t="n">
-        <v>5.961996338831808</v>
+        <v>4.062800704005341</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.685093194699729</v>
+        <v>-4.937162484665359</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-11.74907760626763</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.46703873754682</v>
+        <v>-27.18856545610331</v>
       </c>
       <c r="F25" t="n">
-        <v>5.753331216140379</v>
+        <v>3.879037141318874</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.397625501203949</v>
+        <v>-4.625631138546487</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-11.63842418563839</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.80945482606933</v>
+        <v>-27.58759266211344</v>
       </c>
       <c r="F26" t="n">
-        <v>5.834791524421598</v>
+        <v>4.080527682053039</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.435004025817077</v>
+        <v>-4.679505964740191</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-11.53538788030538</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.75123335533217</v>
+        <v>-27.44483419192726</v>
       </c>
       <c r="F27" t="n">
-        <v>5.897765501090301</v>
+        <v>4.042795665263184</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.357026270091757</v>
+        <v>-4.62640358441415</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-11.43326659315269</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.0407565403741</v>
+        <v>-27.71011043210631</v>
       </c>
       <c r="F28" t="n">
-        <v>5.665900817763331</v>
+        <v>3.792261358083914</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.527959375993332</v>
+        <v>-4.700519110801161</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-11.33707628062446</v>
       </c>
       <c r="E29" t="n">
-        <v>-28.14651616272957</v>
+        <v>-27.69013157796983</v>
       </c>
       <c r="F29" t="n">
-        <v>5.755871122891673</v>
+        <v>3.927976169341246</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.605518178027717</v>
+        <v>-4.740751757433785</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-11.25453104089737</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.79738372284925</v>
+        <v>-27.36641129790532</v>
       </c>
       <c r="F30" t="n">
-        <v>5.610468007531463</v>
+        <v>3.77971893196154</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.764655119068898</v>
+        <v>-4.847899163890471</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-11.17381160831964</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.63519627524595</v>
+        <v>-27.12586641779428</v>
       </c>
       <c r="F31" t="n">
-        <v>5.593290906203118</v>
+        <v>3.753900910757657</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.668727816147571</v>
+        <v>-4.730526668914397</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-11.09133971185353</v>
       </c>
       <c r="E32" t="n">
-        <v>-27.35769182421273</v>
+        <v>-26.84760261319624</v>
       </c>
       <c r="F32" t="n">
-        <v>5.631494245895276</v>
+        <v>3.705747420905788</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.982733607503529</v>
+        <v>-4.940055883593381</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-11.01299143508242</v>
       </c>
       <c r="E33" t="n">
-        <v>-27.19896074455964</v>
+        <v>-26.63693436817002</v>
       </c>
       <c r="F33" t="n">
-        <v>5.676662690699231</v>
+        <v>3.777074286787512</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.321614774258767</v>
+        <v>-5.276305497477431</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-10.92336552358467</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.71390401657653</v>
+        <v>-26.14377350472789</v>
       </c>
       <c r="F34" t="n">
-        <v>5.691456992910381</v>
+        <v>3.688936904057012</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.5657993145598</v>
+        <v>-5.438479852777892</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-10.81441364571146</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.41337020484471</v>
+        <v>-25.80010055513258</v>
       </c>
       <c r="F35" t="n">
-        <v>5.6222772646947</v>
+        <v>3.678279769543847</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.756030474850079</v>
+        <v>-5.553155333368571</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-10.6917684115597</v>
       </c>
       <c r="E36" t="n">
-        <v>-26.1624169439745</v>
+        <v>-25.5176864905337</v>
       </c>
       <c r="F36" t="n">
-        <v>5.662549188235849</v>
+        <v>3.678934384685933</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.864565665407988</v>
+        <v>-5.503561690204113</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-10.54524417681742</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.68717944312269</v>
+        <v>-25.05472956974743</v>
       </c>
       <c r="F37" t="n">
-        <v>5.495805619243627</v>
+        <v>3.452018591833137</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.256902704665993</v>
+        <v>-5.803414702188165</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-10.36926339733166</v>
       </c>
       <c r="E38" t="n">
-        <v>-25.22571504486037</v>
+        <v>-24.48499182698403</v>
       </c>
       <c r="F38" t="n">
-        <v>5.838562107640015</v>
+        <v>3.875685511791393</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.231503637153045</v>
+        <v>-5.762894024893022</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-10.17481379390668</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.8521523678774</v>
+        <v>-24.12230885366254</v>
       </c>
       <c r="F39" t="n">
-        <v>5.836676816030806</v>
+        <v>3.813078119602258</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.471302256002099</v>
+        <v>-6.033695216871284</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-9.962528701248001</v>
       </c>
       <c r="E40" t="n">
-        <v>-24.29092462196113</v>
+        <v>-23.55682610932271</v>
       </c>
       <c r="F40" t="n">
-        <v>5.932433919015191</v>
+        <v>3.82750583733384</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.426068349683936</v>
+        <v>-5.914371968771793</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-9.73252300920179</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.83083491549719</v>
+        <v>-23.09608178771668</v>
       </c>
       <c r="F41" t="n">
-        <v>6.13122744536396</v>
+        <v>3.976679535912467</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.749408952966045</v>
+        <v>-6.173049688318617</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.500164981761912</v>
       </c>
       <c r="E42" t="n">
-        <v>-23.31257610750746</v>
+        <v>-22.55927118660023</v>
       </c>
       <c r="F42" t="n">
-        <v>6.115857081827773</v>
+        <v>4.010222015792969</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.797182766035503</v>
+        <v>-6.288563076291166</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.272840028270018</v>
       </c>
       <c r="E43" t="n">
-        <v>-22.67202209867317</v>
+        <v>-21.92617979038572</v>
       </c>
       <c r="F43" t="n">
-        <v>6.037696033862669</v>
+        <v>3.948662007831174</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.762461978899245</v>
+        <v>-6.120798307677288</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.051419750542456</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.38141225249538</v>
+        <v>-21.68835810926577</v>
       </c>
       <c r="F44" t="n">
-        <v>6.195379729288417</v>
+        <v>3.988541162287071</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.771626590888454</v>
+        <v>-6.003033043615962</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.849891788698486</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.72248974277415</v>
+        <v>-20.92968534419343</v>
       </c>
       <c r="F45" t="n">
-        <v>6.080481679549429</v>
+        <v>3.891815228892399</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.766952638773957</v>
+        <v>-6.00703928828553</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.678371795733172</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.18185618922791</v>
+        <v>-20.36547255322924</v>
       </c>
       <c r="F46" t="n">
-        <v>5.841442414265194</v>
+        <v>3.611037702148742</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.771652775494137</v>
+        <v>-5.997442630302545</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.535343143448934</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.42445337753122</v>
+        <v>-19.5101916854878</v>
       </c>
       <c r="F47" t="n">
-        <v>6.096585212044753</v>
+        <v>3.893386305233406</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.872843184157838</v>
+        <v>-6.071806910443549</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.429908227552207</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.7507889348102</v>
+        <v>-18.82524167771722</v>
       </c>
       <c r="F48" t="n">
-        <v>5.980011347542024</v>
+        <v>3.72237464551478</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.049091765013154</v>
+        <v>-6.299599887586741</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.371017096688284</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.26262933105361</v>
+        <v>-18.27663491174037</v>
       </c>
       <c r="F49" t="n">
-        <v>6.081921832862019</v>
+        <v>3.809438459412259</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.244114708143506</v>
+        <v>-6.598628084491764</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.350836207893014</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.68715715964554</v>
+        <v>-17.69239089742835</v>
       </c>
       <c r="F50" t="n">
-        <v>5.926490013525047</v>
+        <v>3.70242197598399</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.155872586990272</v>
+        <v>-6.419839596885153</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.370672149930774</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.22310048542056</v>
+        <v>-17.2824054339397</v>
       </c>
       <c r="F51" t="n">
-        <v>6.094385705167342</v>
+        <v>3.828972175252114</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.447359617458461</v>
+        <v>-6.679538516053632</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.437161932702898</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.93907606757215</v>
+        <v>-16.95276743299072</v>
       </c>
       <c r="F52" t="n">
-        <v>5.949349174286701</v>
+        <v>3.690874564877587</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.483847865478352</v>
+        <v>-6.674890748544819</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.537542318620963</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.04728076720514</v>
+        <v>-16.00005364750115</v>
       </c>
       <c r="F53" t="n">
-        <v>5.982027562179649</v>
+        <v>3.747721343816362</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.571500833003708</v>
+        <v>-6.755107288056074</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.668698633330612</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.40656965073675</v>
+        <v>-15.35452456358701</v>
       </c>
       <c r="F54" t="n">
-        <v>5.819525899308145</v>
+        <v>3.619233483727662</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.970095993020058</v>
+        <v>-7.171756733691165</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.835730525705941</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.00788284460051</v>
+        <v>-14.91430897283681</v>
       </c>
       <c r="F55" t="n">
-        <v>5.923923922168069</v>
+        <v>3.689355857747947</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.235948294524148</v>
+        <v>-7.419960610964607</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.023792463977088</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.94864017424169</v>
+        <v>-14.80369210612707</v>
       </c>
       <c r="F56" t="n">
-        <v>5.729005717460451</v>
+        <v>3.540339266803421</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.422854009892629</v>
+        <v>-7.548540117173199</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.2253173794336</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.58916481511642</v>
+        <v>-14.42855835280309</v>
       </c>
       <c r="F57" t="n">
-        <v>5.746235188000163</v>
+        <v>3.641385660135863</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.309697236431591</v>
+        <v>-7.398017911401874</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.442466983261269</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.34754636617237</v>
+        <v>-14.30084293858205</v>
       </c>
       <c r="F58" t="n">
-        <v>5.624372033149377</v>
+        <v>3.531593608505148</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.529386078115754</v>
+        <v>-7.683390836442977</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.662815352679777</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.70428225064984</v>
+        <v>-13.68090930672348</v>
       </c>
       <c r="F59" t="n">
-        <v>5.614683729046499</v>
+        <v>3.571917901257664</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.865216738308869</v>
+        <v>-8.093808345925407</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.876448126055914</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.45544994283999</v>
+        <v>-13.28654296052501</v>
       </c>
       <c r="F60" t="n">
-        <v>5.716096706858509</v>
+        <v>3.715147694346147</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.945040508734873</v>
+        <v>-8.096989775515945</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.08528231952302</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.26826928911184</v>
+        <v>-13.20039560782645</v>
       </c>
       <c r="F61" t="n">
-        <v>5.657757405395778</v>
+        <v>3.690717457243486</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.065371864153178</v>
+        <v>-8.278449092902269</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.28072506928647</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.91853460330081</v>
+        <v>-12.88767286214898</v>
       </c>
       <c r="F62" t="n">
-        <v>5.58032952638981</v>
+        <v>3.666784727648811</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.201492536798604</v>
+        <v>-8.397837802515969</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.45186134734765</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.48623985576986</v>
+        <v>-12.39494404470062</v>
       </c>
       <c r="F63" t="n">
-        <v>5.471401566746649</v>
+        <v>3.507294294430904</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.281303214921765</v>
+        <v>-8.457643441896973</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.60095850853384</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.40692668515468</v>
+        <v>-12.25991003319106</v>
       </c>
       <c r="F64" t="n">
-        <v>5.37166440369838</v>
+        <v>3.486503717518243</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.126997333629182</v>
+        <v>-8.306230959532412</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.72431464197766</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.18319232189242</v>
+        <v>-12.11683734773668</v>
       </c>
       <c r="F65" t="n">
-        <v>5.296200370118671</v>
+        <v>3.366237823614147</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.246019458763314</v>
+        <v>-8.466768776977657</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.81157863948484</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.1746823250453</v>
+        <v>-12.19357133469203</v>
       </c>
       <c r="F66" t="n">
-        <v>5.321520883814569</v>
+        <v>3.414967374791052</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.35824667872259</v>
+        <v>-8.591328946213839</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.86622534396017</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.12946151102998</v>
+        <v>-12.07303050242826</v>
       </c>
       <c r="F67" t="n">
-        <v>5.264621735664427</v>
+        <v>3.251758727566095</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.316704801805793</v>
+        <v>-8.513207175157259</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.89158956777078</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.80269072440334</v>
+        <v>-11.82709159354644</v>
       </c>
       <c r="F68" t="n">
-        <v>4.998743249554654</v>
+        <v>3.00740398732812</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.324324522059678</v>
+        <v>-8.496003889223232</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.87968996343596</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.81782542648837</v>
+        <v>-11.78891443845996</v>
       </c>
       <c r="F69" t="n">
-        <v>4.958968833521491</v>
+        <v>2.908818946929922</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.239564953462343</v>
+        <v>-8.396594033746005</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.83515457223646</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.84850069204654</v>
+        <v>-11.91969345154597</v>
       </c>
       <c r="F70" t="n">
-        <v>4.894921288019767</v>
+        <v>2.836889835117479</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.340611346794784</v>
+        <v>-8.47529186612762</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.76793289714675</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.93161063048581</v>
+        <v>-12.0527112484179</v>
       </c>
       <c r="F71" t="n">
-        <v>4.855251610409337</v>
+        <v>2.794889727601222</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.24499825914166</v>
+        <v>-8.370828381753489</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.67293672208621</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.89330255237092</v>
+        <v>-12.014651924057</v>
       </c>
       <c r="F72" t="n">
-        <v>4.621396897050426</v>
+        <v>2.616336901445762</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.267896696811839</v>
+        <v>-8.3882149599273</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.55479907757538</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.02629416463718</v>
+        <v>-12.20071973204361</v>
       </c>
       <c r="F73" t="n">
-        <v>4.504823032547697</v>
+        <v>2.442314012073539</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.92089830229473</v>
+        <v>-8.038218428059437</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.42869531748701</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.34116404798069</v>
+        <v>-12.51789386068727</v>
       </c>
       <c r="F74" t="n">
-        <v>4.542345572492084</v>
+        <v>2.452709300529869</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.618322091319599</v>
+        <v>-7.762206499550168</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.29061428905346</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.58479871156237</v>
+        <v>-12.81474873532057</v>
       </c>
       <c r="F75" t="n">
-        <v>4.420115833161729</v>
+        <v>2.325373563091242</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.377934318842667</v>
+        <v>-7.440672634060218</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.14370477859113</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.73203474932042</v>
+        <v>-12.95528151402366</v>
       </c>
       <c r="F76" t="n">
-        <v>4.301185354147489</v>
+        <v>2.172560204322615</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.334140565837093</v>
+        <v>-7.425393916643924</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.00274740228738</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.06494582597983</v>
+        <v>-13.30434849238976</v>
       </c>
       <c r="F77" t="n">
-        <v>4.45934037247554</v>
+        <v>2.28538967021261</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.179101515585373</v>
+        <v>-7.294785103494864</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.86590385475543</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.27811470084882</v>
+        <v>-13.59197329351964</v>
       </c>
       <c r="F78" t="n">
-        <v>4.333863742040438</v>
+        <v>2.143521476619667</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.889211746063874</v>
+        <v>-6.956493090367505</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.732949451677619</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.63474903025743</v>
+        <v>-13.9225801248789</v>
       </c>
       <c r="F79" t="n">
-        <v>4.092048908553758</v>
+        <v>1.875076899152915</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.883163102150997</v>
+        <v>-7.015526283880847</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.615699504225901</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.10249773388378</v>
+        <v>-14.40839620642683</v>
       </c>
       <c r="F80" t="n">
-        <v>4.305191598817058</v>
+        <v>2.080992638247583</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.816693480623553</v>
+        <v>-6.902016018243082</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.512859008508181</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.61620042048459</v>
+        <v>-14.86580199080822</v>
       </c>
       <c r="F81" t="n">
-        <v>4.195661393243178</v>
+        <v>2.018359061452765</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.707791705586076</v>
+        <v>-6.836161734949201</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.418851618097694</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.28900077121805</v>
+        <v>-15.52259045516625</v>
       </c>
       <c r="F82" t="n">
-        <v>4.242243806754039</v>
+        <v>2.067586120137655</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.63553528620259</v>
+        <v>-6.734185788114996</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.339914720481303</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.03294469559345</v>
+        <v>-16.2177917360619</v>
       </c>
       <c r="F83" t="n">
-        <v>4.267564320449937</v>
+        <v>2.08324451433636</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.559626114326262</v>
+        <v>-6.735900879787262</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.273802703666467</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.82975533884374</v>
+        <v>-17.04459684512258</v>
       </c>
       <c r="F84" t="n">
-        <v>4.298488339762094</v>
+        <v>2.084318083169381</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.244245631171923</v>
+        <v>-6.433507961051915</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.210153361757641</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.14358102131379</v>
+        <v>-18.38867883945987</v>
       </c>
       <c r="F85" t="n">
-        <v>4.206475635390444</v>
+        <v>2.051980095150318</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.942232389218987</v>
+        <v>-6.067407896688729</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.150683597547859</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.11023810932979</v>
+        <v>-19.44730935493899</v>
       </c>
       <c r="F86" t="n">
-        <v>4.145282211908215</v>
+        <v>2.029251857417082</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.548717042705226</v>
+        <v>-5.687272883679213</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-9.094898156290355</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.20479390380662</v>
+        <v>-20.45655570409913</v>
       </c>
       <c r="F87" t="n">
-        <v>4.078066329118794</v>
+        <v>1.872825023064139</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.474810993163682</v>
+        <v>-5.592445334196591</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-9.031845125072556</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.5394625324007</v>
+        <v>-21.90249581454504</v>
       </c>
       <c r="F88" t="n">
-        <v>4.005377863741531</v>
+        <v>1.830405961856946</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.196363896325852</v>
+        <v>-5.260791118609986</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.961903219490926</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.08538855964887</v>
+        <v>-23.42909760279883</v>
       </c>
       <c r="F89" t="n">
-        <v>4.101265889754333</v>
+        <v>1.94216185891392</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.325833679127681</v>
+        <v>-5.40265931220293</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.889266224558293</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.51322201526467</v>
+        <v>-24.81549391992057</v>
       </c>
       <c r="F90" t="n">
-        <v>4.035306868037717</v>
+        <v>1.935851368944208</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.244255540120886</v>
+        <v>-5.319824312123329</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-8.805264001596548</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.96642835378774</v>
+        <v>-26.27990726967615</v>
       </c>
       <c r="F91" t="n">
-        <v>3.925252970350167</v>
+        <v>1.870285116312844</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.117705340852762</v>
+        <v>-5.196638834685528</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-8.711199557372725</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.72143845741828</v>
+        <v>-27.98311113096198</v>
       </c>
       <c r="F92" t="n">
-        <v>3.940152010984052</v>
+        <v>1.912128116195</v>
       </c>
       <c r="G92" t="n">
-        <v>-5.25551492056477</v>
+        <v>-5.390706039708434</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-8.617041472572168</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.73606892640025</v>
+        <v>-29.88204491973161</v>
       </c>
       <c r="F93" t="n">
-        <v>3.976993751180669</v>
+        <v>1.946927457148308</v>
       </c>
       <c r="G93" t="n">
-        <v>-5.574875463782995</v>
+        <v>-5.760471948867303</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.516856104170618</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.83583864076196</v>
+        <v>-32.04935782445379</v>
       </c>
       <c r="F94" t="n">
-        <v>3.922739248204556</v>
+        <v>1.901418612470468</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.374733430241528</v>
+        <v>-5.572374833940224</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-8.412462844575549</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.86172849018781</v>
+        <v>-33.88497723668083</v>
       </c>
       <c r="F95" t="n">
-        <v>3.696792285762048</v>
+        <v>1.731768552247382</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.620619969911985</v>
+        <v>-5.849460331282515</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.315856923557957</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.31811944165529</v>
+        <v>-36.33867117376293</v>
       </c>
       <c r="F96" t="n">
-        <v>3.580794482584354</v>
+        <v>1.807861016363494</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.825030094179854</v>
+        <v>-6.175026626047718</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.222645886629453</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.66625014092455</v>
+        <v>-38.60583907225895</v>
       </c>
       <c r="F97" t="n">
-        <v>3.529525024656155</v>
+        <v>1.841194019398528</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.230380882462535</v>
+        <v>-6.5881280576127</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.133885095836467</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.90965550976284</v>
+        <v>-40.85512288507316</v>
       </c>
       <c r="F98" t="n">
-        <v>3.032226993516032</v>
+        <v>1.415432330985597</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.327080631251524</v>
+        <v>-6.649596419454604</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-8.056544904531602</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.23754550883878</v>
+        <v>-43.10059683776045</v>
       </c>
       <c r="F99" t="n">
-        <v>2.962156988707114</v>
+        <v>1.342900973242434</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.627064566263993</v>
+        <v>-7.012357946593149</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.9917437370491</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.50710929875483</v>
+        <v>-45.3915272659142</v>
       </c>
       <c r="F100" t="n">
-        <v>2.739771132637555</v>
+        <v>1.118433441021041</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.703209399591472</v>
+        <v>-7.084404889131168</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.928977485876901</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.63648070984168</v>
+        <v>-47.42570454303886</v>
       </c>
       <c r="F101" t="n">
-        <v>2.451478624062747</v>
+        <v>0.8549639386341453</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.623149967714317</v>
+        <v>-7.096829484527967</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-7.883797413340718</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.23559085458683</v>
+        <v>-50.02823177882569</v>
       </c>
       <c r="F102" t="n">
-        <v>2.152764642425925</v>
+        <v>0.8347494230465203</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.804190331409705</v>
+        <v>-7.37909953379558</v>
       </c>
     </row>
   </sheetData>
